--- a/Description.xlsx
+++ b/Description.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hungtran/Documents/Project/MAHR/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Color" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -70,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,16 +393,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -429,7 +424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -449,16 +444,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -466,7 +461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -474,7 +469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="18">
       <c r="A3" t="s">
         <v>12</v>
       </c>
